--- a/テキストテンプレート.xlsx
+++ b/テキストテンプレート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\developer\source\repos\自作アプリ1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldwing-my.sharepoint.com/personal/tezuka_w_world-wing_com/Documents/デスクトップ/自作アプリ1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D3BE1-D70B-472A-8A9D-A33C191EB54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{762D3BE1-D70B-472A-8A9D-A33C191EB54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65A71473-3120-498D-93D5-6D9E30691CBB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,11 +40,22 @@
   <si>
     <t>お疲れ様です。
 手塚です。
+～のレポートが完成したので、ご確認ください。</t>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お疲れ様です。
+手塚です。
 本日の日報を送ります。
 始業　9:30 
 終業　18:30 
 ＊研修
 ＊プログラミング
+WPF
+プログラム上適切ではないクラス名をつけていた為、修正した。
 ＊今後の予定タスク
   プログラミング
   研修動画視聴
@@ -57,24 +68,15 @@
   <si>
     <t>お疲れ様です。
 手塚です。
-～のレポートが完成したので、ご確認ください。</t>
-    <rPh sb="29" eb="31">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お疲れ様です。
-手塚です。
 本日の日報を送ります。
 始業　9:30 
 終業　18:30 
 ＊検証作業
-本日はjasmyのDR版からPro版にアップグレードしたアカウントが正常に動いているか検証した。
+本日はPro版からDR版びダウングレードした際の検証をした。
+LIVAも扱ったが、とても動作が重く、予想以上に時間を消費してしまった。
 ＊プログラミング
 WPF
-少し前から作っていた自作アプリが完成した。
-現在はExcelファイルからデータを出力しているので、WPFのファイル内で完結できる仕組みを作っていこうと思う。
+プログラム上適切ではないクラス名をつけていた為、修正した。
 ＊今後の予定タスク
   プログラミング
   研修動画視聴
@@ -91,56 +93,35 @@
     <rPh sb="53" eb="55">
       <t>ホンジツ</t>
     </rPh>
+    <rPh sb="59" eb="60">
+      <t>バン</t>
+    </rPh>
     <rPh sb="64" eb="65">
       <t>バン</t>
     </rPh>
-    <rPh sb="70" eb="71">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
+    <rPh sb="75" eb="76">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
       <t>ケンショウ</t>
     </rPh>
-    <rPh sb="116" eb="117">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ジサク</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>カンケツ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="191" eb="192">
+    <rPh sb="89" eb="90">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
       <t>オモ</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>ヨソウイジョウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ショウヒ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -525,17 +506,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,24 +524,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="375.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="396.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
